--- a/phân tích/Sơ đồ cơ sở dữ liệu.xlsx
+++ b/phân tích/Sơ đồ cơ sở dữ liệu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\do-an-1\phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>nhan_vien</t>
   </si>
   <si>
-    <t>dau_bep</t>
-  </si>
-  <si>
     <t>ma</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>ghi_chu</t>
   </si>
   <si>
-    <t>ma_dau_bep</t>
-  </si>
-  <si>
     <t>hoa_don_chi_tiet</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>ma_nhan_vien</t>
+  </si>
+  <si>
+    <t>nha_san_xuat</t>
+  </si>
+  <si>
+    <t>ma_nha_san_xuat</t>
   </si>
 </sst>
 </file>
@@ -370,13 +370,16 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,159 +387,159 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D7" s="1" t="s">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E11" s="1" t="s">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E16" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="1" t="s">
+    <row r="25" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="1" t="s">
+    <row r="27" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/phân tích/Sơ đồ cơ sở dữ liệu.xlsx
+++ b/phân tích/Sơ đồ cơ sở dữ liệu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\do-an-1\phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\do-an-1-main\phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A846E27-6CC6-4DA7-81D3-AD94A6C4EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="7944" yWindow="1080" windowWidth="15576" windowHeight="9864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>khach_hang</t>
   </si>
@@ -109,13 +110,19 @@
   </si>
   <si>
     <t>ma_nha_san_xuat</t>
+  </si>
+  <si>
+    <t>the_loai</t>
+  </si>
+  <si>
+    <t>ma_the_loai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -125,6 +132,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,22 +378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -401,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -412,7 +426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -420,7 +434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -428,27 +442,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -456,12 +470,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
@@ -469,7 +483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
@@ -485,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
@@ -493,7 +507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
@@ -501,7 +515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
@@ -509,7 +523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
@@ -517,32 +531,49 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>